--- a/results.xlsx
+++ b/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t xml:space="preserve">4 block, each block 2 Conv, the second would be normal/resconv., 128,128,24</t>
   </si>
@@ -50,16 +50,51 @@
   </si>
   <si>
     <t xml:space="preserve">3 block, each block 2 Conv, the second would be normal/resconv, 128,24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect of firls Conv size</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">first K size, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4 block, each block 2 Conv with 32filters, the second is resconv, 128,128,24</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">K_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect of all Conv size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K_1=K_n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -80,6 +115,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -137,11 +177,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,24 +198,40 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -191,359 +251,517 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.26020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="9" t="n">
         <v>0.852678571428571</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="9" t="n">
         <v>0.862926136363636</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5" t="n">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9" t="n">
         <v>0.849228896103896</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="9" t="n">
         <v>0.857345779220779</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="9" t="n">
         <v>0.91304788961039</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="9" t="n">
         <v>0.903814935064935</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5" t="n">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9" t="n">
         <v>0.906047077922078</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="9" t="n">
         <v>0.894886363636364</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="9" t="n">
         <v>0.784902597402597</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="9" t="n">
         <v>0.763189935064935</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5" t="n">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9" t="n">
         <v>0.782974837662338</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="9" t="n">
         <v>0.757913961038961</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="9" t="n">
         <v>0.850344967532468</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="9" t="n">
         <v>0.852678571428571</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5" t="n">
+      <c r="A17" s="7"/>
+      <c r="B17" s="9" t="n">
         <v>0.842025162337662</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="9" t="n">
         <v>0.840401785714286</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="9" t="n">
         <v>0.884030032467532</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="9" t="n">
         <v>0.883421266233766</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5" t="n">
+      <c r="A19" s="7"/>
+      <c r="B19" s="9" t="n">
         <v>0.875405844155844</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="9" t="n">
         <v>0.877232142857143</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="9" t="n">
         <v>0.784090909090909</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="9" t="n">
         <v>0.801136363636364</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5" t="n">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9" t="n">
         <v>0.773133116883117</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="9" t="n">
         <v>0.787540584415584</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+      <c r="A26" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="B26" s="8" t="n">
+      <c r="B26" s="10" t="n">
         <v>0.862215909090909</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="9" t="n">
+        <v>0.812804383116883</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9" t="n">
+        <v>0.804180194805195</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="9" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>0.911221590909091</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="9" t="n">
+        <v>0.902597402597403</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>0.907771915584416</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+      <c r="A34" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B34" s="9" t="n">
         <v>0.803469967532468</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="9" t="n">
         <v>0.76461038961039</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5" t="n">
+      <c r="A35" s="7"/>
+      <c r="B35" s="9" t="n">
         <v>0.785511363636364</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="9" t="n">
         <v>0.760653409090909</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
+      <c r="A36" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="B36" s="5" t="n">
+      <c r="B36" s="9" t="n">
         <v>0.851055194805195</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="9" t="n">
         <v>0.844866071428571</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
-      <c r="B37" s="5" t="n">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9" t="n">
         <v>0.847199675324675</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="9" t="n">
         <v>0.823965097402597</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
+      <c r="A38" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="9" t="n">
         <v>0.883319805194805</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="9" t="n">
+        <v>0.88382711038961</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
-      <c r="B39" s="5" t="n">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9" t="n">
         <v>0.87307224025974</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="9" t="n">
+        <v>0.870941558441558</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" s="12" t="n">
+        <f aca="false">C17</f>
+        <v>0.840401785714286</v>
+      </c>
+      <c r="C44" s="13" t="n">
+        <f aca="false">C16</f>
+        <v>0.852678571428571</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" s="13" t="n">
+        <v>0.860693993506493</v>
+      </c>
+      <c r="C45" s="13" t="n">
+        <v>0.866071428571429</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" s="13" t="n">
+        <v>0.866883116883117</v>
+      </c>
+      <c r="C46" s="13" t="n">
+        <v>0.871550324675325</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B47" s="13" t="n">
+        <v>0.875608766233766</v>
+      </c>
+      <c r="C47" s="13" t="n">
+        <v>0.883319805194805</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" s="12" t="n">
+        <f aca="false">C17</f>
+        <v>0.840401785714286</v>
+      </c>
+      <c r="C52" s="13" t="n">
+        <f aca="false">C16</f>
+        <v>0.852678571428571</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -560,10 +778,14 @@
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:I50"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/results.xlsx
+++ b/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t xml:space="preserve">4 block, each block 2 Conv, the second would be normal/resconv., 128,128,24</t>
   </si>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">max</t>
   </si>
   <si>
-    <t xml:space="preserve">Incomplete :(</t>
-  </si>
-  <si>
     <t xml:space="preserve">reported</t>
   </si>
   <si>
@@ -55,23 +52,7 @@
     <t xml:space="preserve">effect of firls Conv size</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">first K size, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4 block, each block 2 Conv with 32filters, the second is resconv, 128,128,24</t>
-    </r>
+    <t xml:space="preserve">first K size, 4 block, each block 2 Conv with 32filters, the second is resconv, 128,128,24</t>
   </si>
   <si>
     <t xml:space="preserve">K_1</t>
@@ -94,7 +75,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -116,24 +97,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -177,7 +147,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -210,7 +180,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -218,12 +188,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -253,8 +219,8 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -304,9 +270,7 @@
       <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
@@ -317,7 +281,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -362,7 +326,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -446,7 +410,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -493,7 +457,7 @@
         <v>0.787540584415584</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,7 +473,9 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
+      <c r="B27" s="10" t="n">
+        <v>0.853388798701299</v>
+      </c>
       <c r="C27" s="9" t="n">
         <v>0.804180194805195</v>
       </c>
@@ -536,7 +502,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -619,31 +585,31 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>4</v>
@@ -653,11 +619,11 @@
       <c r="A44" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="12" t="n">
+      <c r="B44" s="11" t="n">
         <f aca="false">C17</f>
         <v>0.840401785714286</v>
       </c>
-      <c r="C44" s="13" t="n">
+      <c r="C44" s="12" t="n">
         <f aca="false">C16</f>
         <v>0.852678571428571</v>
       </c>
@@ -666,10 +632,10 @@
       <c r="A45" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B45" s="13" t="n">
+      <c r="B45" s="12" t="n">
         <v>0.860693993506493</v>
       </c>
-      <c r="C45" s="13" t="n">
+      <c r="C45" s="12" t="n">
         <v>0.866071428571429</v>
       </c>
     </row>
@@ -677,10 +643,10 @@
       <c r="A46" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B46" s="13" t="n">
+      <c r="B46" s="12" t="n">
         <v>0.866883116883117</v>
       </c>
-      <c r="C46" s="13" t="n">
+      <c r="C46" s="12" t="n">
         <v>0.871550324675325</v>
       </c>
     </row>
@@ -688,39 +654,39 @@
       <c r="A47" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B47" s="13" t="n">
+      <c r="B47" s="12" t="n">
         <v>0.875608766233766</v>
       </c>
-      <c r="C47" s="13" t="n">
+      <c r="C47" s="12" t="n">
         <v>0.883319805194805</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="B49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="B50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>4</v>
@@ -730,11 +696,11 @@
       <c r="A52" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="12" t="n">
+      <c r="B52" s="11" t="n">
         <f aca="false">C17</f>
         <v>0.840401785714286</v>
       </c>
-      <c r="C52" s="13" t="n">
+      <c r="C52" s="12" t="n">
         <f aca="false">C16</f>
         <v>0.852678571428571</v>
       </c>
@@ -743,22 +709,22 @@
       <c r="A53" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t xml:space="preserve">4 block, each block 2 Conv, the second would be normal/resconv., 128,128,24</t>
   </si>
@@ -65,6 +66,30 @@
   </si>
   <si>
     <t xml:space="preserve">K_1=K_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratios</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of Filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cin</t>
   </si>
 </sst>
 </file>
@@ -98,12 +123,66 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEE3D3"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A19A"/>
+        <bgColor rgb="FFF79448"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFBEE3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDC578"/>
+        <bgColor rgb="FFF7A19A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79448"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF04E4D"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD4D1"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7477B8"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -147,7 +226,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,8 +275,72 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -209,6 +352,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFCD4D1"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFF79448"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFBEE3D3"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFF7A19A"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFDC578"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFF04E4D"/>
+      <rgbColor rgb="FF7477B8"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -219,7 +422,7 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -623,7 +826,7 @@
         <f aca="false">C17</f>
         <v>0.840401785714286</v>
       </c>
-      <c r="C44" s="12" t="n">
+      <c r="C44" s="10" t="n">
         <f aca="false">C16</f>
         <v>0.852678571428571</v>
       </c>
@@ -632,10 +835,10 @@
       <c r="A45" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B45" s="12" t="n">
+      <c r="B45" s="10" t="n">
         <v>0.860693993506493</v>
       </c>
-      <c r="C45" s="12" t="n">
+      <c r="C45" s="10" t="n">
         <v>0.866071428571429</v>
       </c>
     </row>
@@ -643,10 +846,10 @@
       <c r="A46" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B46" s="12" t="n">
+      <c r="B46" s="10" t="n">
         <v>0.866883116883117</v>
       </c>
-      <c r="C46" s="12" t="n">
+      <c r="C46" s="10" t="n">
         <v>0.871550324675325</v>
       </c>
     </row>
@@ -654,10 +857,10 @@
       <c r="A47" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B47" s="12" t="n">
+      <c r="B47" s="10" t="n">
         <v>0.875608766233766</v>
       </c>
-      <c r="C47" s="12" t="n">
+      <c r="C47" s="10" t="n">
         <v>0.883319805194805</v>
       </c>
     </row>
@@ -700,7 +903,7 @@
         <f aca="false">C17</f>
         <v>0.840401785714286</v>
       </c>
-      <c r="C52" s="12" t="n">
+      <c r="C52" s="10" t="n">
         <f aca="false">C16</f>
         <v>0.852678571428571</v>
       </c>
@@ -709,22 +912,22 @@
       <c r="A53" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -757,4 +960,802 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U24" activeCellId="0" sqref="U24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="15" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="12"/>
+      <c r="G1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="O1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="12"/>
+      <c r="G2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="K2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="O2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18" t="n">
+        <v>64</v>
+      </c>
+      <c r="H3" s="18" t="n">
+        <v>96</v>
+      </c>
+      <c r="I3" s="18" t="n">
+        <v>128</v>
+      </c>
+      <c r="K3" s="19" t="n">
+        <v>64</v>
+      </c>
+      <c r="L3" s="19" t="n">
+        <v>96</v>
+      </c>
+      <c r="M3" s="19" t="n">
+        <v>128</v>
+      </c>
+      <c r="O3" s="20" t="n">
+        <v>64</v>
+      </c>
+      <c r="P3" s="20" t="n">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="20" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18" t="n">
+        <v>811</v>
+      </c>
+      <c r="H4" s="18" t="n">
+        <v>1162</v>
+      </c>
+      <c r="I4" s="18" t="n">
+        <v>1342</v>
+      </c>
+      <c r="K4" s="21" t="n">
+        <f aca="false">C4*D4*D5*B4*A4</f>
+        <v>12288</v>
+      </c>
+      <c r="L4" s="21" t="n">
+        <f aca="false">C4*E4*E5*B4*A4</f>
+        <v>18432</v>
+      </c>
+      <c r="M4" s="21" t="n">
+        <f aca="false">C4*F4*F5*B4*A4</f>
+        <v>24576</v>
+      </c>
+      <c r="O4" s="22" t="n">
+        <f aca="false">G4/K4</f>
+        <v>0.0659993489583333</v>
+      </c>
+      <c r="P4" s="22" t="n">
+        <f aca="false">H4/L4</f>
+        <v>0.0630425347222222</v>
+      </c>
+      <c r="Q4" s="22" t="n">
+        <f aca="false">I4/M4</f>
+        <v>0.0546061197916667</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>64</v>
+      </c>
+      <c r="E5" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="F5" s="16" t="n">
+        <v>128</v>
+      </c>
+      <c r="G5" s="18" t="n">
+        <v>27062</v>
+      </c>
+      <c r="H5" s="18" t="n">
+        <v>56646</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <v>90907</v>
+      </c>
+      <c r="K5" s="21" t="n">
+        <f aca="false">C5*D5*D6*B5*A5</f>
+        <v>196608</v>
+      </c>
+      <c r="L5" s="21" t="n">
+        <f aca="false">C5*E5*E6*B5*A5</f>
+        <v>442368</v>
+      </c>
+      <c r="M5" s="21" t="n">
+        <f aca="false">C5*F5*F6*B5*A5</f>
+        <v>786432</v>
+      </c>
+      <c r="O5" s="23" t="n">
+        <f aca="false">G5/K5</f>
+        <v>0.137644449869792</v>
+      </c>
+      <c r="P5" s="23" t="n">
+        <f aca="false">H5/L5</f>
+        <v>0.1280517578125</v>
+      </c>
+      <c r="Q5" s="23" t="n">
+        <f aca="false">I5/M5</f>
+        <v>0.115594228108724</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>64</v>
+      </c>
+      <c r="E6" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="F6" s="16" t="n">
+        <v>128</v>
+      </c>
+      <c r="G6" s="18" t="n">
+        <v>12672</v>
+      </c>
+      <c r="H6" s="18" t="n">
+        <v>28486</v>
+      </c>
+      <c r="I6" s="18" t="n">
+        <v>48791</v>
+      </c>
+      <c r="K6" s="21" t="n">
+        <f aca="false">C6*D6*D7*B6*A6</f>
+        <v>98304</v>
+      </c>
+      <c r="L6" s="21" t="n">
+        <f aca="false">C6*E6*E7*B6*A6</f>
+        <v>221184</v>
+      </c>
+      <c r="M6" s="21" t="n">
+        <f aca="false">C6*F6*F7*B6*A6</f>
+        <v>393216</v>
+      </c>
+      <c r="O6" s="23" t="n">
+        <f aca="false">G6/K6</f>
+        <v>0.12890625</v>
+      </c>
+      <c r="P6" s="23" t="n">
+        <f aca="false">H6/L6</f>
+        <v>0.128788700810185</v>
+      </c>
+      <c r="Q6" s="23" t="n">
+        <f aca="false">I6/M6</f>
+        <v>0.12408192952474</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>64</v>
+      </c>
+      <c r="E7" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="F7" s="16" t="n">
+        <v>128</v>
+      </c>
+      <c r="G7" s="18" t="n">
+        <v>5988</v>
+      </c>
+      <c r="H7" s="18" t="n">
+        <v>13017</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>23369</v>
+      </c>
+      <c r="K7" s="21" t="n">
+        <f aca="false">C7*D7*D8*B7*A7</f>
+        <v>49152</v>
+      </c>
+      <c r="L7" s="21" t="n">
+        <f aca="false">C7*E7*E8*B7*A7</f>
+        <v>110592</v>
+      </c>
+      <c r="M7" s="21" t="n">
+        <f aca="false">C7*F7*F8*B7*A7</f>
+        <v>196608</v>
+      </c>
+      <c r="O7" s="23" t="n">
+        <f aca="false">G7/K7</f>
+        <v>0.121826171875</v>
+      </c>
+      <c r="P7" s="23" t="n">
+        <f aca="false">H7/L7</f>
+        <v>0.117702907986111</v>
+      </c>
+      <c r="Q7" s="23" t="n">
+        <f aca="false">I7/M7</f>
+        <v>0.118860880533854</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="F8" s="16" t="n">
+        <v>128</v>
+      </c>
+      <c r="G8" s="18" t="n">
+        <v>3320</v>
+      </c>
+      <c r="H8" s="18" t="n">
+        <v>7040</v>
+      </c>
+      <c r="I8" s="18" t="n">
+        <v>13248</v>
+      </c>
+      <c r="K8" s="21" t="n">
+        <f aca="false">C8*D8*D9*B8*A8</f>
+        <v>24576</v>
+      </c>
+      <c r="L8" s="21" t="n">
+        <f aca="false">C8*E8*E9*B8*A8</f>
+        <v>55296</v>
+      </c>
+      <c r="M8" s="21" t="n">
+        <f aca="false">C8*F8*F9*B8*A8</f>
+        <v>98304</v>
+      </c>
+      <c r="O8" s="23" t="n">
+        <f aca="false">G8/K8</f>
+        <v>0.135091145833333</v>
+      </c>
+      <c r="P8" s="23" t="n">
+        <f aca="false">H8/L8</f>
+        <v>0.127314814814815</v>
+      </c>
+      <c r="Q8" s="23" t="n">
+        <f aca="false">I8/M8</f>
+        <v>0.134765625</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>64</v>
+      </c>
+      <c r="E9" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="F9" s="16" t="n">
+        <v>128</v>
+      </c>
+      <c r="G9" s="18" t="n">
+        <v>3294</v>
+      </c>
+      <c r="H9" s="18" t="n">
+        <v>6721</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>11895</v>
+      </c>
+      <c r="K9" s="21" t="n">
+        <f aca="false">C9*D9*D10*B9*A9</f>
+        <v>12288</v>
+      </c>
+      <c r="L9" s="21" t="n">
+        <f aca="false">C9*E9*E10*B9*A9</f>
+        <v>27648</v>
+      </c>
+      <c r="M9" s="21" t="n">
+        <f aca="false">C9*F9*F10*B9*A9</f>
+        <v>49152</v>
+      </c>
+      <c r="O9" s="24" t="n">
+        <f aca="false">G9/K9</f>
+        <v>0.26806640625</v>
+      </c>
+      <c r="P9" s="24" t="n">
+        <f aca="false">H9/L9</f>
+        <v>0.243091724537037</v>
+      </c>
+      <c r="Q9" s="24" t="n">
+        <f aca="false">I9/M9</f>
+        <v>0.24200439453125</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>64</v>
+      </c>
+      <c r="E10" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="F10" s="16" t="n">
+        <v>128</v>
+      </c>
+      <c r="G10" s="18" t="n">
+        <v>3390</v>
+      </c>
+      <c r="H10" s="18" t="n">
+        <v>7044</v>
+      </c>
+      <c r="I10" s="18" t="n">
+        <v>12430</v>
+      </c>
+      <c r="K10" s="21" t="n">
+        <f aca="false">C10*D10*D11*B10*A10</f>
+        <v>12288</v>
+      </c>
+      <c r="L10" s="21" t="n">
+        <f aca="false">C10*E10*E11*B10*A10</f>
+        <v>27648</v>
+      </c>
+      <c r="M10" s="21" t="n">
+        <f aca="false">C10*F10*F11*B10*A10</f>
+        <v>49152</v>
+      </c>
+      <c r="O10" s="24" t="n">
+        <f aca="false">G10/K10</f>
+        <v>0.27587890625</v>
+      </c>
+      <c r="P10" s="24" t="n">
+        <f aca="false">H10/L10</f>
+        <v>0.254774305555556</v>
+      </c>
+      <c r="Q10" s="24" t="n">
+        <f aca="false">I10/M10</f>
+        <v>0.252888997395833</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="F11" s="16" t="n">
+        <v>128</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="0" t="n">
+        <v>3886</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>4290</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>5397</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">A4*B4*C4*D4*D5</f>
+        <v>12288</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">A4*B4*C4*E4*E5</f>
+        <v>18432</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">A4*B4*C4*F4*F5</f>
+        <v>24576</v>
+      </c>
+      <c r="O15" s="26" t="n">
+        <f aca="false">G15/K15</f>
+        <v>0.316243489583333</v>
+      </c>
+      <c r="P15" s="26" t="n">
+        <f aca="false">H15/L15</f>
+        <v>0.232747395833333</v>
+      </c>
+      <c r="Q15" s="26" t="n">
+        <f aca="false">I15/M15</f>
+        <v>0.2196044921875</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="0" t="n">
+        <v>37625</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>75273</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>122778</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">A5*B5*C5*D5*D6</f>
+        <v>196608</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">A5*B5*C5*E5*E6</f>
+        <v>442368</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">A5*B5*C5*F5*F6</f>
+        <v>786432</v>
+      </c>
+      <c r="O16" s="27" t="n">
+        <f aca="false">G16/K16</f>
+        <v>0.191370646158854</v>
+      </c>
+      <c r="P16" s="27" t="n">
+        <f aca="false">H16/L16</f>
+        <v>0.170159233940972</v>
+      </c>
+      <c r="Q16" s="27" t="n">
+        <f aca="false">I16/M16</f>
+        <v>0.156120300292969</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="0" t="n">
+        <v>19512</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>40276</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>66916</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">A6*B6*C6*D6*D7</f>
+        <v>98304</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">A6*B6*C6*E6*E7</f>
+        <v>221184</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">A6*B6*C6*F6*F7</f>
+        <v>393216</v>
+      </c>
+      <c r="O17" s="27" t="n">
+        <f aca="false">G17/K17</f>
+        <v>0.198486328125</v>
+      </c>
+      <c r="P17" s="27" t="n">
+        <f aca="false">H17/L17</f>
+        <v>0.182092737268519</v>
+      </c>
+      <c r="Q17" s="27" t="n">
+        <f aca="false">I17/M17</f>
+        <v>0.170176188151042</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="0" t="n">
+        <v>10093</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>20553</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>36533</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">A7*B7*C7*D7*D8</f>
+        <v>49152</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">A7*B7*C7*E7*E8</f>
+        <v>110592</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">A7*B7*C7*F7*F8</f>
+        <v>196608</v>
+      </c>
+      <c r="O18" s="27" t="n">
+        <f aca="false">G18/K18</f>
+        <v>0.205342610677083</v>
+      </c>
+      <c r="P18" s="27" t="n">
+        <f aca="false">H18/L18</f>
+        <v>0.185845269097222</v>
+      </c>
+      <c r="Q18" s="27" t="n">
+        <f aca="false">I18/M18</f>
+        <v>0.185816446940104</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="0" t="n">
+        <v>5550</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>11667</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>20367</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">A8*B8*C8*D8*D9</f>
+        <v>24576</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">A8*B8*C8*E8*E9</f>
+        <v>55296</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="false">A8*B8*C8*F8*F9</f>
+        <v>98304</v>
+      </c>
+      <c r="O19" s="27" t="n">
+        <f aca="false">G19/K19</f>
+        <v>0.225830078125</v>
+      </c>
+      <c r="P19" s="27" t="n">
+        <f aca="false">H19/L19</f>
+        <v>0.210991753472222</v>
+      </c>
+      <c r="Q19" s="27" t="n">
+        <f aca="false">I19/M19</f>
+        <v>0.207183837890625</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="0" t="n">
+        <v>4037</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>8456</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>14500</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">A9*B9*C9*D9*D10</f>
+        <v>12288</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">A9*B9*C9*E9*E10</f>
+        <v>27648</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">A9*B9*C9*F9*F10</f>
+        <v>49152</v>
+      </c>
+      <c r="O20" s="28" t="n">
+        <f aca="false">G20/K20</f>
+        <v>0.328531901041667</v>
+      </c>
+      <c r="P20" s="28" t="n">
+        <f aca="false">H20/L20</f>
+        <v>0.305844907407407</v>
+      </c>
+      <c r="Q20" s="28" t="n">
+        <f aca="false">I20/M20</f>
+        <v>0.295003255208333</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="0" t="n">
+        <v>4283</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>8992</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>15443</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">A10*B10*C10*D10*D11</f>
+        <v>12288</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">A10*B10*C10*E10*E11</f>
+        <v>27648</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">A10*B10*C10*F10*F11</f>
+        <v>49152</v>
+      </c>
+      <c r="O21" s="28" t="n">
+        <f aca="false">G21/K21</f>
+        <v>0.348551432291667</v>
+      </c>
+      <c r="P21" s="28" t="n">
+        <f aca="false">H21/L21</f>
+        <v>0.325231481481481</v>
+      </c>
+      <c r="Q21" s="28" t="n">
+        <f aca="false">I21/M21</f>
+        <v>0.314188639322917</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -275,6 +275,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,10 +328,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -967,10 +967,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U24" activeCellId="0" sqref="U24"/>
+      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -980,499 +980,525 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="15" style="0" width="5.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="12" width="5.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="D1" s="13"/>
+      <c r="G1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="14" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="O1" s="15" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="O1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="12"/>
-      <c r="G2" s="13" t="s">
+      <c r="D2" s="13"/>
+      <c r="G2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="K2" s="14" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="K2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="O2" s="15" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="O2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18" t="n">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19" t="n">
         <v>64</v>
       </c>
-      <c r="H3" s="18" t="n">
+      <c r="H3" s="19" t="n">
         <v>96</v>
       </c>
-      <c r="I3" s="18" t="n">
+      <c r="I3" s="19" t="n">
         <v>128</v>
       </c>
-      <c r="K3" s="19" t="n">
+      <c r="K3" s="20" t="n">
         <v>64</v>
       </c>
-      <c r="L3" s="19" t="n">
+      <c r="L3" s="20" t="n">
         <v>96</v>
       </c>
-      <c r="M3" s="19" t="n">
+      <c r="M3" s="20" t="n">
         <v>128</v>
       </c>
-      <c r="O3" s="20" t="n">
+      <c r="O3" s="21" t="n">
         <v>64</v>
       </c>
-      <c r="P3" s="20" t="n">
+      <c r="P3" s="21" t="n">
         <v>96</v>
       </c>
-      <c r="Q3" s="20" t="n">
+      <c r="Q3" s="21" t="n">
         <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="n">
+      <c r="F4" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="19" t="n">
         <v>811</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="H4" s="19" t="n">
         <v>1162</v>
       </c>
-      <c r="I4" s="18" t="n">
+      <c r="I4" s="19" t="n">
         <v>1342</v>
       </c>
-      <c r="K4" s="21" t="n">
+      <c r="K4" s="22" t="n">
         <f aca="false">C4*D4*D5*B4*A4</f>
         <v>12288</v>
       </c>
-      <c r="L4" s="21" t="n">
+      <c r="L4" s="22" t="n">
         <f aca="false">C4*E4*E5*B4*A4</f>
         <v>18432</v>
       </c>
-      <c r="M4" s="21" t="n">
+      <c r="M4" s="22" t="n">
         <f aca="false">C4*F4*F5*B4*A4</f>
         <v>24576</v>
       </c>
-      <c r="O4" s="22" t="n">
+      <c r="O4" s="23" t="n">
         <f aca="false">G4/K4</f>
         <v>0.0659993489583333</v>
       </c>
-      <c r="P4" s="22" t="n">
+      <c r="P4" s="23" t="n">
         <f aca="false">H4/L4</f>
         <v>0.0630425347222222</v>
       </c>
-      <c r="Q4" s="22" t="n">
+      <c r="Q4" s="23" t="n">
         <f aca="false">I4/M4</f>
         <v>0.0546061197916667</v>
       </c>
-      <c r="R4" s="0" t="n">
-        <v>0.05</v>
+      <c r="R4" s="12" t="n">
+        <f aca="false">AVERAGE(O4:Q4)</f>
+        <v>0.0612160011574074</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="17" t="n">
         <v>64</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="17" t="n">
         <v>96</v>
       </c>
-      <c r="F5" s="16" t="n">
+      <c r="F5" s="17" t="n">
         <v>128</v>
       </c>
-      <c r="G5" s="18" t="n">
+      <c r="G5" s="19" t="n">
         <v>27062</v>
       </c>
-      <c r="H5" s="18" t="n">
+      <c r="H5" s="19" t="n">
         <v>56646</v>
       </c>
-      <c r="I5" s="18" t="n">
+      <c r="I5" s="19" t="n">
         <v>90907</v>
       </c>
-      <c r="K5" s="21" t="n">
+      <c r="K5" s="22" t="n">
         <f aca="false">C5*D5*D6*B5*A5</f>
         <v>196608</v>
       </c>
-      <c r="L5" s="21" t="n">
+      <c r="L5" s="22" t="n">
         <f aca="false">C5*E5*E6*B5*A5</f>
         <v>442368</v>
       </c>
-      <c r="M5" s="21" t="n">
+      <c r="M5" s="22" t="n">
         <f aca="false">C5*F5*F6*B5*A5</f>
         <v>786432</v>
       </c>
-      <c r="O5" s="23" t="n">
+      <c r="O5" s="24" t="n">
         <f aca="false">G5/K5</f>
         <v>0.137644449869792</v>
       </c>
-      <c r="P5" s="23" t="n">
+      <c r="P5" s="24" t="n">
         <f aca="false">H5/L5</f>
         <v>0.1280517578125</v>
       </c>
-      <c r="Q5" s="23" t="n">
+      <c r="Q5" s="24" t="n">
         <f aca="false">I5/M5</f>
         <v>0.115594228108724</v>
       </c>
-      <c r="R5" s="0" t="n">
-        <v>0.15</v>
+      <c r="R5" s="12" t="n">
+        <f aca="false">AVERAGE(O5:Q5)</f>
+        <v>0.127096811930339</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="n">
+      <c r="B6" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="17" t="n">
         <v>64</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="17" t="n">
         <v>96</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="17" t="n">
         <v>128</v>
       </c>
-      <c r="G6" s="18" t="n">
+      <c r="G6" s="19" t="n">
         <v>12672</v>
       </c>
-      <c r="H6" s="18" t="n">
+      <c r="H6" s="19" t="n">
         <v>28486</v>
       </c>
-      <c r="I6" s="18" t="n">
+      <c r="I6" s="19" t="n">
         <v>48791</v>
       </c>
-      <c r="K6" s="21" t="n">
+      <c r="K6" s="22" t="n">
         <f aca="false">C6*D6*D7*B6*A6</f>
         <v>98304</v>
       </c>
-      <c r="L6" s="21" t="n">
+      <c r="L6" s="22" t="n">
         <f aca="false">C6*E6*E7*B6*A6</f>
         <v>221184</v>
       </c>
-      <c r="M6" s="21" t="n">
+      <c r="M6" s="22" t="n">
         <f aca="false">C6*F6*F7*B6*A6</f>
         <v>393216</v>
       </c>
-      <c r="O6" s="23" t="n">
+      <c r="O6" s="24" t="n">
         <f aca="false">G6/K6</f>
         <v>0.12890625</v>
       </c>
-      <c r="P6" s="23" t="n">
+      <c r="P6" s="24" t="n">
         <f aca="false">H6/L6</f>
         <v>0.128788700810185</v>
       </c>
-      <c r="Q6" s="23" t="n">
+      <c r="Q6" s="24" t="n">
         <f aca="false">I6/M6</f>
         <v>0.12408192952474</v>
       </c>
-      <c r="R6" s="0" t="n">
-        <v>0.15</v>
+      <c r="R6" s="12" t="n">
+        <f aca="false">AVERAGE(O6:Q6)</f>
+        <v>0.127258960111642</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="17" t="n">
         <v>64</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="17" t="n">
         <v>96</v>
       </c>
-      <c r="F7" s="16" t="n">
+      <c r="F7" s="17" t="n">
         <v>128</v>
       </c>
-      <c r="G7" s="18" t="n">
+      <c r="G7" s="19" t="n">
         <v>5988</v>
       </c>
-      <c r="H7" s="18" t="n">
+      <c r="H7" s="19" t="n">
         <v>13017</v>
       </c>
-      <c r="I7" s="18" t="n">
+      <c r="I7" s="19" t="n">
         <v>23369</v>
       </c>
-      <c r="K7" s="21" t="n">
+      <c r="K7" s="22" t="n">
         <f aca="false">C7*D7*D8*B7*A7</f>
         <v>49152</v>
       </c>
-      <c r="L7" s="21" t="n">
+      <c r="L7" s="22" t="n">
         <f aca="false">C7*E7*E8*B7*A7</f>
         <v>110592</v>
       </c>
-      <c r="M7" s="21" t="n">
+      <c r="M7" s="22" t="n">
         <f aca="false">C7*F7*F8*B7*A7</f>
         <v>196608</v>
       </c>
-      <c r="O7" s="23" t="n">
+      <c r="O7" s="24" t="n">
         <f aca="false">G7/K7</f>
         <v>0.121826171875</v>
       </c>
-      <c r="P7" s="23" t="n">
+      <c r="P7" s="24" t="n">
         <f aca="false">H7/L7</f>
         <v>0.117702907986111</v>
       </c>
-      <c r="Q7" s="23" t="n">
+      <c r="Q7" s="24" t="n">
         <f aca="false">I7/M7</f>
         <v>0.118860880533854</v>
       </c>
-      <c r="R7" s="0" t="n">
-        <v>0.15</v>
+      <c r="R7" s="12" t="n">
+        <f aca="false">AVERAGE(O7:Q7)</f>
+        <v>0.119463320131655</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="16" t="n">
+      <c r="B8" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="17" t="n">
         <v>64</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="17" t="n">
         <v>96</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="17" t="n">
         <v>128</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="19" t="n">
         <v>3320</v>
       </c>
-      <c r="H8" s="18" t="n">
+      <c r="H8" s="19" t="n">
         <v>7040</v>
       </c>
-      <c r="I8" s="18" t="n">
+      <c r="I8" s="19" t="n">
         <v>13248</v>
       </c>
-      <c r="K8" s="21" t="n">
+      <c r="K8" s="22" t="n">
         <f aca="false">C8*D8*D9*B8*A8</f>
         <v>24576</v>
       </c>
-      <c r="L8" s="21" t="n">
+      <c r="L8" s="22" t="n">
         <f aca="false">C8*E8*E9*B8*A8</f>
         <v>55296</v>
       </c>
-      <c r="M8" s="21" t="n">
+      <c r="M8" s="22" t="n">
         <f aca="false">C8*F8*F9*B8*A8</f>
         <v>98304</v>
       </c>
-      <c r="O8" s="23" t="n">
+      <c r="O8" s="24" t="n">
         <f aca="false">G8/K8</f>
         <v>0.135091145833333</v>
       </c>
-      <c r="P8" s="23" t="n">
+      <c r="P8" s="24" t="n">
         <f aca="false">H8/L8</f>
         <v>0.127314814814815</v>
       </c>
-      <c r="Q8" s="23" t="n">
+      <c r="Q8" s="24" t="n">
         <f aca="false">I8/M8</f>
         <v>0.134765625</v>
       </c>
-      <c r="R8" s="0" t="n">
-        <v>0.15</v>
+      <c r="R8" s="12" t="n">
+        <f aca="false">AVERAGE(O8:Q8)</f>
+        <v>0.132390528549383</v>
+      </c>
+      <c r="S8" s="12" t="n">
+        <f aca="false">AVERAGE(R5:R8)</f>
+        <v>0.126552405180755</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="n">
+      <c r="B9" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="17" t="n">
         <v>64</v>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="17" t="n">
         <v>96</v>
       </c>
-      <c r="F9" s="16" t="n">
+      <c r="F9" s="17" t="n">
         <v>128</v>
       </c>
-      <c r="G9" s="18" t="n">
+      <c r="G9" s="19" t="n">
         <v>3294</v>
       </c>
-      <c r="H9" s="18" t="n">
+      <c r="H9" s="19" t="n">
         <v>6721</v>
       </c>
-      <c r="I9" s="18" t="n">
+      <c r="I9" s="19" t="n">
         <v>11895</v>
       </c>
-      <c r="K9" s="21" t="n">
+      <c r="K9" s="22" t="n">
         <f aca="false">C9*D9*D10*B9*A9</f>
         <v>12288</v>
       </c>
-      <c r="L9" s="21" t="n">
+      <c r="L9" s="22" t="n">
         <f aca="false">C9*E9*E10*B9*A9</f>
         <v>27648</v>
       </c>
-      <c r="M9" s="21" t="n">
+      <c r="M9" s="22" t="n">
         <f aca="false">C9*F9*F10*B9*A9</f>
         <v>49152</v>
       </c>
-      <c r="O9" s="24" t="n">
+      <c r="O9" s="25" t="n">
         <f aca="false">G9/K9</f>
         <v>0.26806640625</v>
       </c>
-      <c r="P9" s="24" t="n">
+      <c r="P9" s="25" t="n">
         <f aca="false">H9/L9</f>
         <v>0.243091724537037</v>
       </c>
-      <c r="Q9" s="24" t="n">
+      <c r="Q9" s="25" t="n">
         <f aca="false">I9/M9</f>
         <v>0.24200439453125</v>
       </c>
-      <c r="R9" s="0" t="n">
-        <v>0.25</v>
+      <c r="R9" s="12" t="n">
+        <f aca="false">AVERAGE(O9:Q9)</f>
+        <v>0.251054175106096</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="16" t="n">
+      <c r="B10" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="17" t="n">
         <v>64</v>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="17" t="n">
         <v>96</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" s="17" t="n">
         <v>128</v>
       </c>
-      <c r="G10" s="18" t="n">
+      <c r="G10" s="19" t="n">
         <v>3390</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="H10" s="19" t="n">
         <v>7044</v>
       </c>
-      <c r="I10" s="18" t="n">
+      <c r="I10" s="19" t="n">
         <v>12430</v>
       </c>
-      <c r="K10" s="21" t="n">
+      <c r="K10" s="22" t="n">
         <f aca="false">C10*D10*D11*B10*A10</f>
         <v>12288</v>
       </c>
-      <c r="L10" s="21" t="n">
+      <c r="L10" s="22" t="n">
         <f aca="false">C10*E10*E11*B10*A10</f>
         <v>27648</v>
       </c>
-      <c r="M10" s="21" t="n">
+      <c r="M10" s="22" t="n">
         <f aca="false">C10*F10*F11*B10*A10</f>
         <v>49152</v>
       </c>
-      <c r="O10" s="24" t="n">
+      <c r="O10" s="25" t="n">
         <f aca="false">G10/K10</f>
         <v>0.27587890625</v>
       </c>
-      <c r="P10" s="24" t="n">
+      <c r="P10" s="25" t="n">
         <f aca="false">H10/L10</f>
         <v>0.254774305555556</v>
       </c>
-      <c r="Q10" s="24" t="n">
+      <c r="Q10" s="25" t="n">
         <f aca="false">I10/M10</f>
         <v>0.252888997395833</v>
       </c>
-      <c r="R10" s="0" t="n">
-        <v>0.25</v>
+      <c r="R10" s="12" t="n">
+        <f aca="false">AVERAGE(O10:Q10)</f>
+        <v>0.261180736400463</v>
+      </c>
+      <c r="S10" s="12" t="n">
+        <f aca="false">AVERAGE(Q9:Q10)</f>
+        <v>0.247446695963542</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16" t="n">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="n">
         <v>64</v>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" s="17" t="n">
         <v>96</v>
       </c>
-      <c r="F11" s="16" t="n">
+      <c r="F11" s="17" t="n">
         <v>128</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="0" t="n">
@@ -1508,8 +1534,9 @@
         <f aca="false">I15/M15</f>
         <v>0.2196044921875</v>
       </c>
-      <c r="R15" s="0" t="n">
-        <v>0.25</v>
+      <c r="R15" s="12" t="n">
+        <f aca="false">AVERAGE(O15:Q15)</f>
+        <v>0.256198459201389</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,8 +1573,9 @@
         <f aca="false">I16/M16</f>
         <v>0.156120300292969</v>
       </c>
-      <c r="R16" s="0" t="n">
-        <v>0.2</v>
+      <c r="R16" s="12" t="n">
+        <f aca="false">AVERAGE(O16:Q16)</f>
+        <v>0.172550060130932</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,8 +1612,9 @@
         <f aca="false">I17/M17</f>
         <v>0.170176188151042</v>
       </c>
-      <c r="R17" s="0" t="n">
-        <v>0.2</v>
+      <c r="R17" s="12" t="n">
+        <f aca="false">AVERAGE(O17:Q17)</f>
+        <v>0.183585084514854</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,8 +1651,9 @@
         <f aca="false">I18/M18</f>
         <v>0.185816446940104</v>
       </c>
-      <c r="R18" s="0" t="n">
-        <v>0.2</v>
+      <c r="R18" s="12" t="n">
+        <f aca="false">AVERAGE(O18:Q18)</f>
+        <v>0.19233477557147</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,8 +1690,13 @@
         <f aca="false">I19/M19</f>
         <v>0.207183837890625</v>
       </c>
-      <c r="R19" s="0" t="n">
-        <v>0.2</v>
+      <c r="R19" s="12" t="n">
+        <f aca="false">AVERAGE(O19:Q19)</f>
+        <v>0.214668556495949</v>
+      </c>
+      <c r="S19" s="12" t="n">
+        <f aca="false">AVERAGE(R16:R19)</f>
+        <v>0.190784619178301</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,8 +1733,9 @@
         <f aca="false">I20/M20</f>
         <v>0.295003255208333</v>
       </c>
-      <c r="R20" s="0" t="n">
-        <v>0.3</v>
+      <c r="R20" s="12" t="n">
+        <f aca="false">AVERAGE(O20:Q20)</f>
+        <v>0.309793354552469</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,8 +1772,13 @@
         <f aca="false">I21/M21</f>
         <v>0.314188639322917</v>
       </c>
-      <c r="R21" s="0" t="n">
-        <v>0.3</v>
+      <c r="R21" s="12" t="n">
+        <f aca="false">AVERAGE(O21:Q21)</f>
+        <v>0.329323851032022</v>
+      </c>
+      <c r="S21" s="12" t="n">
+        <f aca="false">AVERAGE(Q20:Q21)</f>
+        <v>0.304595947265625</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t xml:space="preserve">4 block, each block 2 Conv, the second would be normal/resconv., 128,128,24</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve"># of Filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream</t>
   </si>
   <si>
     <t xml:space="preserve">Precision</t>
@@ -123,7 +120,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +129,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBEE3D3"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FF59C5C7"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -145,13 +142,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFBEE3D3"/>
+        <bgColor rgb="FFFCD4D1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDC578"/>
         <bgColor rgb="FFF7A19A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCE4E5"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD4D1"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -170,12 +179,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF04E4D"/>
         <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCD4D1"/>
-        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -226,7 +229,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -315,31 +318,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,14 +395,14 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFBEE3D3"/>
+      <rgbColor rgb="FFBCE4E5"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFF7A19A"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFDC578"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF59C5C7"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -967,58 +974,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="15" style="0" width="5.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="12" width="5.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="12" width="5.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="13"/>
-      <c r="G1" s="14" t="s">
+      <c r="C1" s="13"/>
+      <c r="F1" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="G1" s="14"/>
       <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="K1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>16</v>
       </c>
+      <c r="K1" s="15"/>
       <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="O1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="O1" s="16"/>
       <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="13"/>
-      <c r="G2" s="14" t="s">
+      <c r="C2" s="13"/>
+      <c r="F2" s="14" t="s">
         <v>18</v>
       </c>
+      <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="15"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="O2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>18</v>
       </c>
+      <c r="O2" s="16"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
@@ -1027,51 +1034,48 @@
       <c r="B3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="F3" s="19" t="n">
+        <v>64</v>
+      </c>
       <c r="G3" s="19" t="n">
+        <v>96</v>
+      </c>
+      <c r="H3" s="19" t="n">
+        <v>128</v>
+      </c>
+      <c r="J3" s="20" t="n">
         <v>64</v>
       </c>
-      <c r="H3" s="19" t="n">
+      <c r="K3" s="20" t="n">
         <v>96</v>
       </c>
-      <c r="I3" s="19" t="n">
+      <c r="L3" s="20" t="n">
         <v>128</v>
       </c>
-      <c r="K3" s="20" t="n">
+      <c r="N3" s="21" t="n">
         <v>64</v>
       </c>
-      <c r="L3" s="20" t="n">
+      <c r="O3" s="21" t="n">
         <v>96</v>
       </c>
-      <c r="M3" s="20" t="n">
-        <v>128</v>
-      </c>
-      <c r="O3" s="21" t="n">
-        <v>64</v>
-      </c>
       <c r="P3" s="21" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q3" s="21" t="n">
         <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" s="17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C4" s="17" t="n">
-        <v>3</v>
       </c>
       <c r="D4" s="17" t="n">
         <v>2</v>
@@ -1079,277 +1083,262 @@
       <c r="E4" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="19" t="n">
+      <c r="F4" s="22" t="n">
         <v>811</v>
       </c>
-      <c r="H4" s="19" t="n">
+      <c r="G4" s="22" t="n">
         <v>1162</v>
       </c>
-      <c r="I4" s="19" t="n">
+      <c r="H4" s="22" t="n">
         <v>1342</v>
       </c>
-      <c r="K4" s="22" t="n">
-        <f aca="false">C4*D4*D5*B4*A4</f>
+      <c r="J4" s="23" t="n">
+        <f aca="false">B4*C4*C5*A4</f>
+        <v>6144</v>
+      </c>
+      <c r="K4" s="23" t="n">
+        <f aca="false">B4*D4*D5*A4</f>
+        <v>9216</v>
+      </c>
+      <c r="L4" s="23" t="n">
+        <f aca="false">B4*E4*E5*A4</f>
         <v>12288</v>
       </c>
-      <c r="L4" s="22" t="n">
-        <f aca="false">C4*E4*E5*B4*A4</f>
-        <v>18432</v>
-      </c>
-      <c r="M4" s="22" t="n">
-        <f aca="false">C4*F4*F5*B4*A4</f>
-        <v>24576</v>
-      </c>
-      <c r="O4" s="23" t="n">
+      <c r="N4" s="24" t="n">
+        <f aca="false">F4/J4</f>
+        <v>0.131998697916667</v>
+      </c>
+      <c r="O4" s="24" t="n">
         <f aca="false">G4/K4</f>
-        <v>0.0659993489583333</v>
-      </c>
-      <c r="P4" s="23" t="n">
+        <v>0.126085069444444</v>
+      </c>
+      <c r="P4" s="24" t="n">
         <f aca="false">H4/L4</f>
-        <v>0.0630425347222222</v>
-      </c>
-      <c r="Q4" s="23" t="n">
-        <f aca="false">I4/M4</f>
-        <v>0.0546061197916667</v>
-      </c>
-      <c r="R4" s="12" t="n">
-        <f aca="false">AVERAGE(O4:Q4)</f>
-        <v>0.0612160011574074</v>
+        <v>0.109212239583333</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <f aca="false">AVERAGE(N4:P4)</f>
+        <v>0.122432002314815</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B5" s="17" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C5" s="17" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D5" s="17" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E5" s="17" t="n">
-        <v>96</v>
-      </c>
-      <c r="F5" s="17" t="n">
         <v>128</v>
       </c>
-      <c r="G5" s="19" t="n">
+      <c r="F5" s="22" t="n">
         <v>27062</v>
       </c>
-      <c r="H5" s="19" t="n">
+      <c r="G5" s="22" t="n">
         <v>56646</v>
       </c>
-      <c r="I5" s="19" t="n">
+      <c r="H5" s="22" t="n">
         <v>90907</v>
       </c>
-      <c r="K5" s="22" t="n">
-        <f aca="false">C5*D5*D6*B5*A5</f>
+      <c r="J5" s="23" t="n">
+        <f aca="false">B5*C5*C6*A5</f>
         <v>196608</v>
       </c>
-      <c r="L5" s="22" t="n">
-        <f aca="false">C5*E5*E6*B5*A5</f>
+      <c r="K5" s="23" t="n">
+        <f aca="false">B5*D5*D6*A5</f>
         <v>442368</v>
       </c>
-      <c r="M5" s="22" t="n">
-        <f aca="false">C5*F5*F6*B5*A5</f>
+      <c r="L5" s="23" t="n">
+        <f aca="false">B5*E5*E6*A5</f>
         <v>786432</v>
       </c>
-      <c r="O5" s="24" t="n">
+      <c r="N5" s="25" t="n">
+        <f aca="false">F5/J5</f>
+        <v>0.137644449869792</v>
+      </c>
+      <c r="O5" s="25" t="n">
         <f aca="false">G5/K5</f>
-        <v>0.137644449869792</v>
-      </c>
-      <c r="P5" s="24" t="n">
+        <v>0.1280517578125</v>
+      </c>
+      <c r="P5" s="25" t="n">
         <f aca="false">H5/L5</f>
-        <v>0.1280517578125</v>
-      </c>
-      <c r="Q5" s="24" t="n">
-        <f aca="false">I5/M5</f>
         <v>0.115594228108724</v>
       </c>
-      <c r="R5" s="12" t="n">
-        <f aca="false">AVERAGE(O5:Q5)</f>
+      <c r="Q5" s="12" t="n">
+        <f aca="false">AVERAGE(N5:P5)</f>
         <v>0.127096811930339</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" s="17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="17" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D6" s="17" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E6" s="17" t="n">
-        <v>96</v>
-      </c>
-      <c r="F6" s="17" t="n">
         <v>128</v>
       </c>
-      <c r="G6" s="19" t="n">
+      <c r="F6" s="22" t="n">
         <v>12672</v>
       </c>
-      <c r="H6" s="19" t="n">
+      <c r="G6" s="22" t="n">
         <v>28486</v>
       </c>
-      <c r="I6" s="19" t="n">
+      <c r="H6" s="22" t="n">
         <v>48791</v>
       </c>
-      <c r="K6" s="22" t="n">
-        <f aca="false">C6*D6*D7*B6*A6</f>
+      <c r="J6" s="23" t="n">
+        <f aca="false">B6*C6*C7*A6</f>
         <v>98304</v>
       </c>
-      <c r="L6" s="22" t="n">
-        <f aca="false">C6*E6*E7*B6*A6</f>
+      <c r="K6" s="23" t="n">
+        <f aca="false">B6*D6*D7*A6</f>
         <v>221184</v>
       </c>
-      <c r="M6" s="22" t="n">
-        <f aca="false">C6*F6*F7*B6*A6</f>
+      <c r="L6" s="23" t="n">
+        <f aca="false">B6*E6*E7*A6</f>
         <v>393216</v>
       </c>
-      <c r="O6" s="24" t="n">
+      <c r="N6" s="25" t="n">
+        <f aca="false">F6/J6</f>
+        <v>0.12890625</v>
+      </c>
+      <c r="O6" s="25" t="n">
         <f aca="false">G6/K6</f>
-        <v>0.12890625</v>
-      </c>
-      <c r="P6" s="24" t="n">
+        <v>0.128788700810185</v>
+      </c>
+      <c r="P6" s="25" t="n">
         <f aca="false">H6/L6</f>
-        <v>0.128788700810185</v>
-      </c>
-      <c r="Q6" s="24" t="n">
-        <f aca="false">I6/M6</f>
         <v>0.12408192952474</v>
       </c>
-      <c r="R6" s="12" t="n">
-        <f aca="false">AVERAGE(O6:Q6)</f>
+      <c r="Q6" s="12" t="n">
+        <f aca="false">AVERAGE(N6:P6)</f>
         <v>0.127258960111642</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" s="17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="17" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D7" s="17" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E7" s="17" t="n">
-        <v>96</v>
-      </c>
-      <c r="F7" s="17" t="n">
         <v>128</v>
       </c>
-      <c r="G7" s="19" t="n">
+      <c r="F7" s="22" t="n">
         <v>5988</v>
       </c>
-      <c r="H7" s="19" t="n">
+      <c r="G7" s="22" t="n">
         <v>13017</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="H7" s="22" t="n">
         <v>23369</v>
       </c>
-      <c r="K7" s="22" t="n">
-        <f aca="false">C7*D7*D8*B7*A7</f>
+      <c r="J7" s="23" t="n">
+        <f aca="false">B7*C7*C8*A7</f>
         <v>49152</v>
       </c>
-      <c r="L7" s="22" t="n">
-        <f aca="false">C7*E7*E8*B7*A7</f>
+      <c r="K7" s="23" t="n">
+        <f aca="false">B7*D7*D8*A7</f>
         <v>110592</v>
       </c>
-      <c r="M7" s="22" t="n">
-        <f aca="false">C7*F7*F8*B7*A7</f>
+      <c r="L7" s="23" t="n">
+        <f aca="false">B7*E7*E8*A7</f>
         <v>196608</v>
       </c>
-      <c r="O7" s="24" t="n">
+      <c r="N7" s="25" t="n">
+        <f aca="false">F7/J7</f>
+        <v>0.121826171875</v>
+      </c>
+      <c r="O7" s="25" t="n">
         <f aca="false">G7/K7</f>
-        <v>0.121826171875</v>
-      </c>
-      <c r="P7" s="24" t="n">
+        <v>0.117702907986111</v>
+      </c>
+      <c r="P7" s="25" t="n">
         <f aca="false">H7/L7</f>
-        <v>0.117702907986111</v>
-      </c>
-      <c r="Q7" s="24" t="n">
-        <f aca="false">I7/M7</f>
         <v>0.118860880533854</v>
       </c>
-      <c r="R7" s="12" t="n">
-        <f aca="false">AVERAGE(O7:Q7)</f>
+      <c r="Q7" s="12" t="n">
+        <f aca="false">AVERAGE(N7:P7)</f>
         <v>0.119463320131655</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="17" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D8" s="17" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E8" s="17" t="n">
-        <v>96</v>
-      </c>
-      <c r="F8" s="17" t="n">
         <v>128</v>
       </c>
-      <c r="G8" s="19" t="n">
+      <c r="F8" s="22" t="n">
         <v>3320</v>
       </c>
-      <c r="H8" s="19" t="n">
+      <c r="G8" s="22" t="n">
         <v>7040</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="H8" s="22" t="n">
         <v>13248</v>
       </c>
-      <c r="K8" s="22" t="n">
-        <f aca="false">C8*D8*D9*B8*A8</f>
+      <c r="J8" s="23" t="n">
+        <f aca="false">B8*C8*C9*A8</f>
         <v>24576</v>
       </c>
-      <c r="L8" s="22" t="n">
-        <f aca="false">C8*E8*E9*B8*A8</f>
+      <c r="K8" s="23" t="n">
+        <f aca="false">B8*D8*D9*A8</f>
         <v>55296</v>
       </c>
-      <c r="M8" s="22" t="n">
-        <f aca="false">C8*F8*F9*B8*A8</f>
+      <c r="L8" s="23" t="n">
+        <f aca="false">B8*E8*E9*A8</f>
         <v>98304</v>
       </c>
-      <c r="O8" s="24" t="n">
+      <c r="N8" s="25" t="n">
+        <f aca="false">F8/J8</f>
+        <v>0.135091145833333</v>
+      </c>
+      <c r="O8" s="25" t="n">
         <f aca="false">G8/K8</f>
-        <v>0.135091145833333</v>
-      </c>
-      <c r="P8" s="24" t="n">
+        <v>0.127314814814815</v>
+      </c>
+      <c r="P8" s="25" t="n">
         <f aca="false">H8/L8</f>
-        <v>0.127314814814815</v>
-      </c>
-      <c r="Q8" s="24" t="n">
-        <f aca="false">I8/M8</f>
         <v>0.134765625</v>
       </c>
+      <c r="Q8" s="12" t="n">
+        <f aca="false">AVERAGE(N8:P8)</f>
+        <v>0.132390528549383</v>
+      </c>
       <c r="R8" s="12" t="n">
-        <f aca="false">AVERAGE(O8:Q8)</f>
-        <v>0.132390528549383</v>
-      </c>
-      <c r="S8" s="12" t="n">
-        <f aca="false">AVERAGE(R5:R8)</f>
-        <v>0.126552405180755</v>
+        <f aca="false">AVERAGE(Q5:Q8)</f>
+        <v>0.126552405180754</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,55 +1346,52 @@
         <v>1</v>
       </c>
       <c r="B9" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="17" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D9" s="17" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>96</v>
-      </c>
-      <c r="F9" s="17" t="n">
         <v>128</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="F9" s="22" t="n">
         <v>3294</v>
       </c>
-      <c r="H9" s="19" t="n">
+      <c r="G9" s="22" t="n">
         <v>6721</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="H9" s="22" t="n">
         <v>11895</v>
       </c>
-      <c r="K9" s="22" t="n">
-        <f aca="false">C9*D9*D10*B9*A9</f>
+      <c r="J9" s="23" t="n">
+        <f aca="false">B9*C9*C10*A9</f>
         <v>12288</v>
       </c>
-      <c r="L9" s="22" t="n">
-        <f aca="false">C9*E9*E10*B9*A9</f>
+      <c r="K9" s="23" t="n">
+        <f aca="false">B9*D9*D10*A9</f>
         <v>27648</v>
       </c>
-      <c r="M9" s="22" t="n">
-        <f aca="false">C9*F9*F10*B9*A9</f>
+      <c r="L9" s="23" t="n">
+        <f aca="false">B9*E9*E10*A9</f>
         <v>49152</v>
       </c>
-      <c r="O9" s="25" t="n">
+      <c r="N9" s="26" t="n">
+        <f aca="false">F9/J9</f>
+        <v>0.26806640625</v>
+      </c>
+      <c r="O9" s="26" t="n">
         <f aca="false">G9/K9</f>
-        <v>0.26806640625</v>
-      </c>
-      <c r="P9" s="25" t="n">
+        <v>0.243091724537037</v>
+      </c>
+      <c r="P9" s="26" t="n">
         <f aca="false">H9/L9</f>
-        <v>0.243091724537037</v>
-      </c>
-      <c r="Q9" s="25" t="n">
-        <f aca="false">I9/M9</f>
         <v>0.24200439453125</v>
       </c>
-      <c r="R9" s="12" t="n">
-        <f aca="false">AVERAGE(O9:Q9)</f>
+      <c r="Q9" s="12" t="n">
+        <f aca="false">AVERAGE(N9:P9)</f>
         <v>0.251054175106096</v>
       </c>
     </row>
@@ -1414,382 +1400,404 @@
         <v>1</v>
       </c>
       <c r="B10" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="17" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D10" s="17" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E10" s="17" t="n">
-        <v>96</v>
-      </c>
-      <c r="F10" s="17" t="n">
         <v>128</v>
       </c>
-      <c r="G10" s="19" t="n">
+      <c r="F10" s="22" t="n">
         <v>3390</v>
       </c>
-      <c r="H10" s="19" t="n">
+      <c r="G10" s="22" t="n">
         <v>7044</v>
       </c>
-      <c r="I10" s="19" t="n">
+      <c r="H10" s="22" t="n">
         <v>12430</v>
       </c>
-      <c r="K10" s="22" t="n">
-        <f aca="false">C10*D10*D11*B10*A10</f>
+      <c r="J10" s="23" t="n">
+        <f aca="false">B10*C10*C11*A10</f>
         <v>12288</v>
       </c>
-      <c r="L10" s="22" t="n">
-        <f aca="false">C10*E10*E11*B10*A10</f>
+      <c r="K10" s="23" t="n">
+        <f aca="false">B10*D10*D11*A10</f>
         <v>27648</v>
       </c>
-      <c r="M10" s="22" t="n">
-        <f aca="false">C10*F10*F11*B10*A10</f>
+      <c r="L10" s="23" t="n">
+        <f aca="false">B10*E10*E11*A10</f>
         <v>49152</v>
       </c>
-      <c r="O10" s="25" t="n">
+      <c r="N10" s="26" t="n">
+        <f aca="false">F10/J10</f>
+        <v>0.27587890625</v>
+      </c>
+      <c r="O10" s="26" t="n">
         <f aca="false">G10/K10</f>
-        <v>0.27587890625</v>
-      </c>
-      <c r="P10" s="25" t="n">
+        <v>0.254774305555556</v>
+      </c>
+      <c r="P10" s="26" t="n">
         <f aca="false">H10/L10</f>
-        <v>0.254774305555556</v>
-      </c>
-      <c r="Q10" s="25" t="n">
-        <f aca="false">I10/M10</f>
         <v>0.252888997395833</v>
       </c>
+      <c r="Q10" s="12" t="n">
+        <f aca="false">AVERAGE(N10:P10)</f>
+        <v>0.261180736400463</v>
+      </c>
       <c r="R10" s="12" t="n">
-        <f aca="false">AVERAGE(O10:Q10)</f>
-        <v>0.261180736400463</v>
-      </c>
-      <c r="S10" s="12" t="n">
-        <f aca="false">AVERAGE(Q9:Q10)</f>
+        <f aca="false">AVERAGE(P9:P10)</f>
         <v>0.247446695963542</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="C11" s="17" t="n">
+        <v>64</v>
+      </c>
       <c r="D11" s="17" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E11" s="17" t="n">
-        <v>96</v>
-      </c>
-      <c r="F11" s="17" t="n">
         <v>128</v>
       </c>
+      <c r="F11" s="19" t="n">
+        <f aca="false">SUM(F4:F10)</f>
+        <v>56537</v>
+      </c>
+      <c r="G11" s="19" t="n">
+        <f aca="false">SUM(G4:G10)</f>
+        <v>120116</v>
+      </c>
+      <c r="H11" s="19" t="n">
+        <f aca="false">SUM(H4:H10)</f>
+        <v>201982</v>
+      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R12" s="12"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R14" s="12"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G15" s="0" t="n">
+      <c r="F15" s="22" t="n">
         <v>3886</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="G15" s="22" t="n">
         <v>4290</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="H15" s="22" t="n">
         <v>5397</v>
       </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">A4*B4*C4*C5</f>
+        <v>6144</v>
+      </c>
       <c r="K15" s="0" t="n">
-        <f aca="false">A4*B4*C4*D4*D5</f>
+        <f aca="false">A4*B4*D4*D5</f>
+        <v>9216</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">A4*B4*E4*E5</f>
         <v>12288</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <f aca="false">A4*B4*C4*E4*E5</f>
-        <v>18432</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <f aca="false">A4*B4*C4*F4*F5</f>
+      <c r="N15" s="27" t="n">
+        <f aca="false">F15/J15</f>
+        <v>0.632486979166667</v>
+      </c>
+      <c r="O15" s="27" t="n">
+        <f aca="false">G15/K15</f>
+        <v>0.465494791666667</v>
+      </c>
+      <c r="P15" s="27" t="n">
+        <f aca="false">H15/L15</f>
+        <v>0.439208984375</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <f aca="false">AVERAGE(N15:P15)</f>
+        <v>0.512396918402778</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="22" t="n">
+        <v>37625</v>
+      </c>
+      <c r="G16" s="22" t="n">
+        <v>75273</v>
+      </c>
+      <c r="H16" s="22" t="n">
+        <v>122778</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">A5*B5*C5*C6</f>
+        <v>196608</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">A5*B5*D5*D6</f>
+        <v>442368</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">A5*B5*E5*E6</f>
+        <v>786432</v>
+      </c>
+      <c r="N16" s="28" t="n">
+        <f aca="false">F16/J16</f>
+        <v>0.191370646158854</v>
+      </c>
+      <c r="O16" s="28" t="n">
+        <f aca="false">G16/K16</f>
+        <v>0.170159233940972</v>
+      </c>
+      <c r="P16" s="28" t="n">
+        <f aca="false">H16/L16</f>
+        <v>0.156120300292969</v>
+      </c>
+      <c r="Q16" s="12" t="n">
+        <f aca="false">AVERAGE(N16:P16)</f>
+        <v>0.172550060130932</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="22" t="n">
+        <v>19512</v>
+      </c>
+      <c r="G17" s="22" t="n">
+        <v>40276</v>
+      </c>
+      <c r="H17" s="22" t="n">
+        <v>66916</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">A6*B6*C6*C7</f>
+        <v>98304</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">A6*B6*D6*D7</f>
+        <v>221184</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">A6*B6*E6*E7</f>
+        <v>393216</v>
+      </c>
+      <c r="N17" s="28" t="n">
+        <f aca="false">F17/J17</f>
+        <v>0.198486328125</v>
+      </c>
+      <c r="O17" s="28" t="n">
+        <f aca="false">G17/K17</f>
+        <v>0.182092737268519</v>
+      </c>
+      <c r="P17" s="28" t="n">
+        <f aca="false">H17/L17</f>
+        <v>0.170176188151042</v>
+      </c>
+      <c r="Q17" s="12" t="n">
+        <f aca="false">AVERAGE(N17:P17)</f>
+        <v>0.183585084514853</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="22" t="n">
+        <v>10093</v>
+      </c>
+      <c r="G18" s="22" t="n">
+        <v>20553</v>
+      </c>
+      <c r="H18" s="22" t="n">
+        <v>36533</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">A7*B7*C7*C8</f>
+        <v>49152</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">A7*B7*D7*D8</f>
+        <v>110592</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">A7*B7*E7*E8</f>
+        <v>196608</v>
+      </c>
+      <c r="N18" s="28" t="n">
+        <f aca="false">F18/J18</f>
+        <v>0.205342610677083</v>
+      </c>
+      <c r="O18" s="28" t="n">
+        <f aca="false">G18/K18</f>
+        <v>0.185845269097222</v>
+      </c>
+      <c r="P18" s="28" t="n">
+        <f aca="false">H18/L18</f>
+        <v>0.185816446940104</v>
+      </c>
+      <c r="Q18" s="12" t="n">
+        <f aca="false">AVERAGE(N18:P18)</f>
+        <v>0.19233477557147</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="22" t="n">
+        <v>5550</v>
+      </c>
+      <c r="G19" s="22" t="n">
+        <v>11667</v>
+      </c>
+      <c r="H19" s="22" t="n">
+        <v>20367</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">A8*B8*C8*C9</f>
         <v>24576</v>
       </c>
-      <c r="O15" s="26" t="n">
-        <f aca="false">G15/K15</f>
-        <v>0.316243489583333</v>
-      </c>
-      <c r="P15" s="26" t="n">
-        <f aca="false">H15/L15</f>
-        <v>0.232747395833333</v>
-      </c>
-      <c r="Q15" s="26" t="n">
-        <f aca="false">I15/M15</f>
-        <v>0.2196044921875</v>
-      </c>
-      <c r="R15" s="12" t="n">
-        <f aca="false">AVERAGE(O15:Q15)</f>
-        <v>0.256198459201389</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G16" s="0" t="n">
-        <v>37625</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>75273</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>122778</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <f aca="false">A5*B5*C5*D5*D6</f>
-        <v>196608</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <f aca="false">A5*B5*C5*E5*E6</f>
-        <v>442368</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <f aca="false">A5*B5*C5*F5*F6</f>
-        <v>786432</v>
-      </c>
-      <c r="O16" s="27" t="n">
-        <f aca="false">G16/K16</f>
-        <v>0.191370646158854</v>
-      </c>
-      <c r="P16" s="27" t="n">
-        <f aca="false">H16/L16</f>
-        <v>0.170159233940972</v>
-      </c>
-      <c r="Q16" s="27" t="n">
-        <f aca="false">I16/M16</f>
-        <v>0.156120300292969</v>
-      </c>
-      <c r="R16" s="12" t="n">
-        <f aca="false">AVERAGE(O16:Q16)</f>
-        <v>0.172550060130932</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G17" s="0" t="n">
-        <v>19512</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>40276</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>66916</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <f aca="false">A6*B6*C6*D6*D7</f>
+      <c r="K19" s="0" t="n">
+        <f aca="false">A8*B8*D8*D9</f>
+        <v>55296</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">A8*B8*E8*E9</f>
         <v>98304</v>
       </c>
-      <c r="L17" s="0" t="n">
-        <f aca="false">A6*B6*C6*E6*E7</f>
-        <v>221184</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <f aca="false">A6*B6*C6*F6*F7</f>
-        <v>393216</v>
-      </c>
-      <c r="O17" s="27" t="n">
-        <f aca="false">G17/K17</f>
-        <v>0.198486328125</v>
-      </c>
-      <c r="P17" s="27" t="n">
-        <f aca="false">H17/L17</f>
-        <v>0.182092737268519</v>
-      </c>
-      <c r="Q17" s="27" t="n">
-        <f aca="false">I17/M17</f>
-        <v>0.170176188151042</v>
-      </c>
-      <c r="R17" s="12" t="n">
-        <f aca="false">AVERAGE(O17:Q17)</f>
-        <v>0.183585084514854</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="0" t="n">
-        <v>10093</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>20553</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>36533</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <f aca="false">A7*B7*C7*D7*D8</f>
+      <c r="N19" s="28" t="n">
+        <f aca="false">F19/J19</f>
+        <v>0.225830078125</v>
+      </c>
+      <c r="O19" s="28" t="n">
+        <f aca="false">G19/K19</f>
+        <v>0.210991753472222</v>
+      </c>
+      <c r="P19" s="28" t="n">
+        <f aca="false">H19/L19</f>
+        <v>0.207183837890625</v>
+      </c>
+      <c r="Q19" s="12" t="n">
+        <f aca="false">AVERAGE(N19:P19)</f>
+        <v>0.214668556495949</v>
+      </c>
+      <c r="R19" s="12" t="n">
+        <f aca="false">AVERAGE(Q16:Q19)</f>
+        <v>0.190784619178301</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="22" t="n">
+        <v>4037</v>
+      </c>
+      <c r="G20" s="22" t="n">
+        <v>8456</v>
+      </c>
+      <c r="H20" s="22" t="n">
+        <v>14500</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">A9*B9*C9*C10</f>
+        <v>12288</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">A9*B9*D9*D10</f>
+        <v>27648</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">A9*B9*E9*E10</f>
         <v>49152</v>
       </c>
-      <c r="L18" s="0" t="n">
-        <f aca="false">A7*B7*C7*E7*E8</f>
-        <v>110592</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <f aca="false">A7*B7*C7*F7*F8</f>
-        <v>196608</v>
-      </c>
-      <c r="O18" s="27" t="n">
-        <f aca="false">G18/K18</f>
-        <v>0.205342610677083</v>
-      </c>
-      <c r="P18" s="27" t="n">
-        <f aca="false">H18/L18</f>
-        <v>0.185845269097222</v>
-      </c>
-      <c r="Q18" s="27" t="n">
-        <f aca="false">I18/M18</f>
-        <v>0.185816446940104</v>
-      </c>
-      <c r="R18" s="12" t="n">
-        <f aca="false">AVERAGE(O18:Q18)</f>
-        <v>0.19233477557147</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G19" s="0" t="n">
-        <v>5550</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>11667</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>20367</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <f aca="false">A8*B8*C8*D8*D9</f>
-        <v>24576</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <f aca="false">A8*B8*C8*E8*E9</f>
-        <v>55296</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <f aca="false">A8*B8*C8*F8*F9</f>
-        <v>98304</v>
-      </c>
-      <c r="O19" s="27" t="n">
-        <f aca="false">G19/K19</f>
-        <v>0.225830078125</v>
-      </c>
-      <c r="P19" s="27" t="n">
-        <f aca="false">H19/L19</f>
-        <v>0.210991753472222</v>
-      </c>
-      <c r="Q19" s="27" t="n">
-        <f aca="false">I19/M19</f>
-        <v>0.207183837890625</v>
-      </c>
-      <c r="R19" s="12" t="n">
-        <f aca="false">AVERAGE(O19:Q19)</f>
-        <v>0.214668556495949</v>
-      </c>
-      <c r="S19" s="12" t="n">
-        <f aca="false">AVERAGE(R16:R19)</f>
-        <v>0.190784619178301</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="0" t="n">
-        <v>4037</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>8456</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>14500</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <f aca="false">A9*B9*C9*D9*D10</f>
+      <c r="N20" s="29" t="n">
+        <f aca="false">F20/J20</f>
+        <v>0.328531901041667</v>
+      </c>
+      <c r="O20" s="29" t="n">
+        <f aca="false">G20/K20</f>
+        <v>0.305844907407407</v>
+      </c>
+      <c r="P20" s="29" t="n">
+        <f aca="false">H20/L20</f>
+        <v>0.295003255208333</v>
+      </c>
+      <c r="Q20" s="12" t="n">
+        <f aca="false">AVERAGE(N20:P20)</f>
+        <v>0.309793354552469</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="22" t="n">
+        <v>4283</v>
+      </c>
+      <c r="G21" s="22" t="n">
+        <v>8992</v>
+      </c>
+      <c r="H21" s="22" t="n">
+        <v>15443</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">A10*B10*C10*C11</f>
         <v>12288</v>
       </c>
-      <c r="L20" s="0" t="n">
-        <f aca="false">A9*B9*C9*E9*E10</f>
+      <c r="K21" s="0" t="n">
+        <f aca="false">A10*B10*D10*D11</f>
         <v>27648</v>
       </c>
-      <c r="M20" s="0" t="n">
-        <f aca="false">A9*B9*C9*F9*F10</f>
+      <c r="L21" s="0" t="n">
+        <f aca="false">A10*B10*E10*E11</f>
         <v>49152</v>
       </c>
-      <c r="O20" s="28" t="n">
-        <f aca="false">G20/K20</f>
-        <v>0.328531901041667</v>
-      </c>
-      <c r="P20" s="28" t="n">
-        <f aca="false">H20/L20</f>
-        <v>0.305844907407407</v>
-      </c>
-      <c r="Q20" s="28" t="n">
-        <f aca="false">I20/M20</f>
-        <v>0.295003255208333</v>
-      </c>
-      <c r="R20" s="12" t="n">
-        <f aca="false">AVERAGE(O20:Q20)</f>
-        <v>0.309793354552469</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G21" s="0" t="n">
-        <v>4283</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>8992</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>15443</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <f aca="false">A10*B10*C10*D10*D11</f>
-        <v>12288</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <f aca="false">A10*B10*C10*E10*E11</f>
-        <v>27648</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <f aca="false">A10*B10*C10*F10*F11</f>
-        <v>49152</v>
-      </c>
-      <c r="O21" s="28" t="n">
+      <c r="N21" s="29" t="n">
+        <f aca="false">F21/J21</f>
+        <v>0.348551432291667</v>
+      </c>
+      <c r="O21" s="29" t="n">
         <f aca="false">G21/K21</f>
-        <v>0.348551432291667</v>
-      </c>
-      <c r="P21" s="28" t="n">
+        <v>0.325231481481481</v>
+      </c>
+      <c r="P21" s="29" t="n">
         <f aca="false">H21/L21</f>
-        <v>0.325231481481481</v>
-      </c>
-      <c r="Q21" s="28" t="n">
-        <f aca="false">I21/M21</f>
         <v>0.314188639322917</v>
       </c>
+      <c r="Q21" s="12" t="n">
+        <f aca="false">AVERAGE(N21:P21)</f>
+        <v>0.329323851032022</v>
+      </c>
       <c r="R21" s="12" t="n">
-        <f aca="false">AVERAGE(O21:Q21)</f>
-        <v>0.329323851032022</v>
-      </c>
-      <c r="S21" s="12" t="n">
-        <f aca="false">AVERAGE(Q20:Q21)</f>
+        <f aca="false">AVERAGE(P20:P21)</f>
         <v>0.304595947265625</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="19" t="n">
+        <f aca="false">SUM(F15:F21)</f>
+        <v>84986</v>
+      </c>
+      <c r="G22" s="19" t="n">
+        <f aca="false">SUM(G15:G21)</f>
+        <v>169507</v>
+      </c>
+      <c r="H22" s="19" t="n">
+        <f aca="false">SUM(H15:H21)</f>
+        <v>281934</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" state="visible" r:id="rId2"/>
@@ -120,7 +120,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,13 +172,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF04E4D"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
     <fill>
@@ -229,7 +235,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,11 +344,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -387,7 +401,7 @@
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -429,19 +443,20 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.34"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -451,12 +466,18 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
@@ -466,6 +487,12 @@
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
@@ -477,10 +504,14 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="0"/>
       <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="0"/>
       <c r="G4" s="8"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
@@ -490,9 +521,14 @@
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
@@ -504,6 +540,12 @@
       <c r="C6" s="9" t="n">
         <v>0.862926136363636</v>
       </c>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
@@ -513,6 +555,12 @@
       <c r="C7" s="9" t="n">
         <v>0.857345779220779</v>
       </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
@@ -524,6 +572,12 @@
       <c r="C8" s="9" t="n">
         <v>0.903814935064935</v>
       </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
@@ -533,8 +587,26 @@
       <c r="C9" s="9" t="n">
         <v>0.894886363636364</v>
       </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -544,10 +616,18 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
+      <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
@@ -557,6 +637,12 @@
       <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
@@ -568,6 +654,12 @@
       <c r="C14" s="9" t="n">
         <v>0.763189935064935</v>
       </c>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
@@ -577,6 +669,12 @@
       <c r="C15" s="9" t="n">
         <v>0.757913961038961</v>
       </c>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
@@ -588,6 +686,12 @@
       <c r="C16" s="9" t="n">
         <v>0.852678571428571</v>
       </c>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
@@ -597,6 +701,12 @@
       <c r="C17" s="9" t="n">
         <v>0.840401785714286</v>
       </c>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
@@ -608,6 +718,12 @@
       <c r="C18" s="9" t="n">
         <v>0.883421266233766</v>
       </c>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
@@ -617,8 +733,26 @@
       <c r="C19" s="9" t="n">
         <v>0.877232142857143</v>
       </c>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -628,12 +762,18 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
+      <c r="I21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
@@ -643,6 +783,12 @@
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
@@ -654,9 +800,14 @@
       <c r="C24" s="9" t="n">
         <v>0.801136363636364</v>
       </c>
+      <c r="D24" s="0"/>
       <c r="E24" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
@@ -666,9 +817,14 @@
       <c r="C25" s="9" t="n">
         <v>0.787540584415584</v>
       </c>
+      <c r="D25" s="0"/>
       <c r="E25" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
@@ -680,6 +836,12 @@
       <c r="C26" s="9" t="n">
         <v>0.812804383116883</v>
       </c>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
@@ -689,6 +851,12 @@
       <c r="C27" s="9" t="n">
         <v>0.804180194805195</v>
       </c>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
@@ -700,6 +868,12 @@
       <c r="C28" s="9" t="n">
         <v>0.911221590909091</v>
       </c>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7"/>
@@ -709,8 +883,26 @@
       <c r="C29" s="9" t="n">
         <v>0.907771915584416</v>
       </c>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
@@ -720,10 +912,18 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
+      <c r="I31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
@@ -733,6 +933,12 @@
       <c r="C33" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
@@ -744,6 +950,12 @@
       <c r="C34" s="9" t="n">
         <v>0.76461038961039</v>
       </c>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
@@ -753,6 +965,12 @@
       <c r="C35" s="9" t="n">
         <v>0.760653409090909</v>
       </c>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
@@ -764,6 +982,12 @@
       <c r="C36" s="9" t="n">
         <v>0.844866071428571</v>
       </c>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7"/>
@@ -773,6 +997,12 @@
       <c r="C37" s="9" t="n">
         <v>0.823965097402597</v>
       </c>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
@@ -784,6 +1014,12 @@
       <c r="C38" s="9" t="n">
         <v>0.88382711038961</v>
       </c>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
@@ -793,16 +1029,39 @@
       <c r="C39" s="9" t="n">
         <v>0.870941558441558</v>
       </c>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
       <c r="B41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
       <c r="B42" s="2" t="s">
         <v>10</v>
       </c>
@@ -824,6 +1083,12 @@
       <c r="C43" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -837,6 +1102,12 @@
         <f aca="false">C16</f>
         <v>0.852678571428571</v>
       </c>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -848,6 +1119,12 @@
       <c r="C45" s="10" t="n">
         <v>0.866071428571429</v>
       </c>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -859,6 +1136,12 @@
       <c r="C46" s="10" t="n">
         <v>0.871550324675325</v>
       </c>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -870,16 +1153,39 @@
       <c r="C47" s="10" t="n">
         <v>0.883319805194805</v>
       </c>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0"/>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
       <c r="B50" s="2" t="s">
         <v>10</v>
       </c>
@@ -961,7 +1267,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -976,19 +1282,19 @@
   </sheetPr>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P31" activeCellId="0" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="5.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="12" width="5.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="17" min="14" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="12" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,6 +1314,7 @@
       </c>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
+      <c r="R1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="13"/>
@@ -1026,6 +1333,7 @@
       </c>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
+      <c r="R2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
@@ -1066,6 +1374,7 @@
       <c r="P3" s="21" t="n">
         <v>128</v>
       </c>
+      <c r="R3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="n">
@@ -1120,6 +1429,7 @@
         <f aca="false">AVERAGE(N4:P4)</f>
         <v>0.122432002314815</v>
       </c>
+      <c r="R4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="n">
@@ -1174,6 +1484,7 @@
         <f aca="false">AVERAGE(N5:P5)</f>
         <v>0.127096811930339</v>
       </c>
+      <c r="R5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="n">
@@ -1228,6 +1539,7 @@
         <f aca="false">AVERAGE(N6:P6)</f>
         <v>0.127258960111642</v>
       </c>
+      <c r="R6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="n">
@@ -1282,6 +1594,7 @@
         <f aca="false">AVERAGE(N7:P7)</f>
         <v>0.119463320131655</v>
       </c>
+      <c r="R7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="n">
@@ -1394,6 +1707,7 @@
         <f aca="false">AVERAGE(N9:P9)</f>
         <v>0.251054175106096</v>
       </c>
+      <c r="R9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="n">
@@ -1477,22 +1791,46 @@
         <f aca="false">SUM(H4:H10)</f>
         <v>201982</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="20" t="n">
+        <f aca="false">SUM(J4:J10)</f>
+        <v>399360</v>
+      </c>
+      <c r="K11" s="20" t="n">
+        <f aca="false">SUM(K4:K10)</f>
+        <v>893952</v>
+      </c>
+      <c r="L11" s="20" t="n">
+        <f aca="false">SUM(L4:L10)</f>
+        <v>1585152</v>
+      </c>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28" t="n">
+        <f aca="false">F11/J11</f>
+        <v>0.141569010416667</v>
+      </c>
+      <c r="O11" s="28" t="n">
+        <f aca="false">G11/K11</f>
+        <v>0.134365156071019</v>
+      </c>
+      <c r="P11" s="28" t="n">
+        <f aca="false">H11/L11</f>
+        <v>0.127421218911499</v>
+      </c>
       <c r="Q11" s="12"/>
+      <c r="R11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q12" s="12"/>
+      <c r="R12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q13" s="12"/>
+      <c r="R13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q14" s="12"/>
+      <c r="R14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="22" t="n">
@@ -1504,27 +1842,27 @@
       <c r="H15" s="22" t="n">
         <v>5397</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="23" t="n">
         <f aca="false">A4*B4*C4*C5</f>
         <v>6144</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="23" t="n">
         <f aca="false">A4*B4*D4*D5</f>
         <v>9216</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="23" t="n">
         <f aca="false">A4*B4*E4*E5</f>
         <v>12288</v>
       </c>
-      <c r="N15" s="27" t="n">
+      <c r="N15" s="29" t="n">
         <f aca="false">F15/J15</f>
         <v>0.632486979166667</v>
       </c>
-      <c r="O15" s="27" t="n">
+      <c r="O15" s="29" t="n">
         <f aca="false">G15/K15</f>
         <v>0.465494791666667</v>
       </c>
-      <c r="P15" s="27" t="n">
+      <c r="P15" s="29" t="n">
         <f aca="false">H15/L15</f>
         <v>0.439208984375</v>
       </c>
@@ -1532,6 +1870,7 @@
         <f aca="false">AVERAGE(N15:P15)</f>
         <v>0.512396918402778</v>
       </c>
+      <c r="R15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="22" t="n">
@@ -1543,27 +1882,27 @@
       <c r="H16" s="22" t="n">
         <v>122778</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="23" t="n">
         <f aca="false">A5*B5*C5*C6</f>
         <v>196608</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="23" t="n">
         <f aca="false">A5*B5*D5*D6</f>
         <v>442368</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="23" t="n">
         <f aca="false">A5*B5*E5*E6</f>
         <v>786432</v>
       </c>
-      <c r="N16" s="28" t="n">
+      <c r="N16" s="30" t="n">
         <f aca="false">F16/J16</f>
         <v>0.191370646158854</v>
       </c>
-      <c r="O16" s="28" t="n">
+      <c r="O16" s="30" t="n">
         <f aca="false">G16/K16</f>
         <v>0.170159233940972</v>
       </c>
-      <c r="P16" s="28" t="n">
+      <c r="P16" s="30" t="n">
         <f aca="false">H16/L16</f>
         <v>0.156120300292969</v>
       </c>
@@ -1571,6 +1910,7 @@
         <f aca="false">AVERAGE(N16:P16)</f>
         <v>0.172550060130932</v>
       </c>
+      <c r="R16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="22" t="n">
@@ -1582,27 +1922,27 @@
       <c r="H17" s="22" t="n">
         <v>66916</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="23" t="n">
         <f aca="false">A6*B6*C6*C7</f>
         <v>98304</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="23" t="n">
         <f aca="false">A6*B6*D6*D7</f>
         <v>221184</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="23" t="n">
         <f aca="false">A6*B6*E6*E7</f>
         <v>393216</v>
       </c>
-      <c r="N17" s="28" t="n">
+      <c r="N17" s="30" t="n">
         <f aca="false">F17/J17</f>
         <v>0.198486328125</v>
       </c>
-      <c r="O17" s="28" t="n">
+      <c r="O17" s="30" t="n">
         <f aca="false">G17/K17</f>
         <v>0.182092737268519</v>
       </c>
-      <c r="P17" s="28" t="n">
+      <c r="P17" s="30" t="n">
         <f aca="false">H17/L17</f>
         <v>0.170176188151042</v>
       </c>
@@ -1610,6 +1950,7 @@
         <f aca="false">AVERAGE(N17:P17)</f>
         <v>0.183585084514853</v>
       </c>
+      <c r="R17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="22" t="n">
@@ -1621,27 +1962,27 @@
       <c r="H18" s="22" t="n">
         <v>36533</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="23" t="n">
         <f aca="false">A7*B7*C7*C8</f>
         <v>49152</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="23" t="n">
         <f aca="false">A7*B7*D7*D8</f>
         <v>110592</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="23" t="n">
         <f aca="false">A7*B7*E7*E8</f>
         <v>196608</v>
       </c>
-      <c r="N18" s="28" t="n">
+      <c r="N18" s="30" t="n">
         <f aca="false">F18/J18</f>
         <v>0.205342610677083</v>
       </c>
-      <c r="O18" s="28" t="n">
+      <c r="O18" s="30" t="n">
         <f aca="false">G18/K18</f>
         <v>0.185845269097222</v>
       </c>
-      <c r="P18" s="28" t="n">
+      <c r="P18" s="30" t="n">
         <f aca="false">H18/L18</f>
         <v>0.185816446940104</v>
       </c>
@@ -1649,6 +1990,7 @@
         <f aca="false">AVERAGE(N18:P18)</f>
         <v>0.19233477557147</v>
       </c>
+      <c r="R18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="22" t="n">
@@ -1660,27 +2002,27 @@
       <c r="H19" s="22" t="n">
         <v>20367</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="23" t="n">
         <f aca="false">A8*B8*C8*C9</f>
         <v>24576</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="23" t="n">
         <f aca="false">A8*B8*D8*D9</f>
         <v>55296</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="23" t="n">
         <f aca="false">A8*B8*E8*E9</f>
         <v>98304</v>
       </c>
-      <c r="N19" s="28" t="n">
+      <c r="N19" s="30" t="n">
         <f aca="false">F19/J19</f>
         <v>0.225830078125</v>
       </c>
-      <c r="O19" s="28" t="n">
+      <c r="O19" s="30" t="n">
         <f aca="false">G19/K19</f>
         <v>0.210991753472222</v>
       </c>
-      <c r="P19" s="28" t="n">
+      <c r="P19" s="30" t="n">
         <f aca="false">H19/L19</f>
         <v>0.207183837890625</v>
       </c>
@@ -1703,27 +2045,27 @@
       <c r="H20" s="22" t="n">
         <v>14500</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="23" t="n">
         <f aca="false">A9*B9*C9*C10</f>
         <v>12288</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="23" t="n">
         <f aca="false">A9*B9*D9*D10</f>
         <v>27648</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="23" t="n">
         <f aca="false">A9*B9*E9*E10</f>
         <v>49152</v>
       </c>
-      <c r="N20" s="29" t="n">
+      <c r="N20" s="31" t="n">
         <f aca="false">F20/J20</f>
         <v>0.328531901041667</v>
       </c>
-      <c r="O20" s="29" t="n">
+      <c r="O20" s="31" t="n">
         <f aca="false">G20/K20</f>
         <v>0.305844907407407</v>
       </c>
-      <c r="P20" s="29" t="n">
+      <c r="P20" s="31" t="n">
         <f aca="false">H20/L20</f>
         <v>0.295003255208333</v>
       </c>
@@ -1731,6 +2073,7 @@
         <f aca="false">AVERAGE(N20:P20)</f>
         <v>0.309793354552469</v>
       </c>
+      <c r="R20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="22" t="n">
@@ -1742,27 +2085,27 @@
       <c r="H21" s="22" t="n">
         <v>15443</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="23" t="n">
         <f aca="false">A10*B10*C10*C11</f>
         <v>12288</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="23" t="n">
         <f aca="false">A10*B10*D10*D11</f>
         <v>27648</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="23" t="n">
         <f aca="false">A10*B10*E10*E11</f>
         <v>49152</v>
       </c>
-      <c r="N21" s="29" t="n">
+      <c r="N21" s="31" t="n">
         <f aca="false">F21/J21</f>
         <v>0.348551432291667</v>
       </c>
-      <c r="O21" s="29" t="n">
+      <c r="O21" s="31" t="n">
         <f aca="false">G21/K21</f>
         <v>0.325231481481481</v>
       </c>
-      <c r="P21" s="29" t="n">
+      <c r="P21" s="31" t="n">
         <f aca="false">H21/L21</f>
         <v>0.314188639322917</v>
       </c>
@@ -1787,6 +2130,31 @@
       <c r="H22" s="19" t="n">
         <f aca="false">SUM(H15:H21)</f>
         <v>281934</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="20" t="n">
+        <f aca="false">SUM(J15:J21)</f>
+        <v>399360</v>
+      </c>
+      <c r="K22" s="20" t="n">
+        <f aca="false">SUM(K15:K21)</f>
+        <v>893952</v>
+      </c>
+      <c r="L22" s="20" t="n">
+        <f aca="false">SUM(L15:L21)</f>
+        <v>1585152</v>
+      </c>
+      <c r="N22" s="28" t="n">
+        <f aca="false">F22/J22</f>
+        <v>0.212805488782051</v>
+      </c>
+      <c r="O22" s="28" t="n">
+        <f aca="false">G22/K22</f>
+        <v>0.18961532610252</v>
+      </c>
+      <c r="P22" s="28" t="n">
+        <f aca="false">H22/L22</f>
+        <v>0.177859284156977</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +2169,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
